--- a/各品牌汽车销售数据.xlsx
+++ b/各品牌汽车销售数据.xlsx
@@ -1369,231 +1369,210 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="9.18181818181818"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:8">
+    <row r="1" ht="15" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C1" s="1">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D1" s="1">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E1" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F1" s="1">
-        <v>2021</v>
-      </c>
-      <c r="G1" s="1">
         <v>2020</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:8">
+    <row r="2" ht="15" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>371457</v>
+        <v>3489908</v>
       </c>
       <c r="C2" s="1">
-        <v>3489908</v>
+        <v>2391555</v>
       </c>
       <c r="D2" s="1">
-        <v>2391555</v>
+        <v>1583025</v>
       </c>
       <c r="E2" s="1">
-        <v>1583025</v>
+        <v>525711</v>
       </c>
       <c r="F2" s="1">
-        <v>525711</v>
+        <v>144149</v>
       </c>
       <c r="G2" s="1">
-        <v>144149</v>
-      </c>
-      <c r="H2" s="1">
         <v>8505805</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:8">
+    <row r="3" ht="15" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>208449</v>
+        <v>1048619</v>
       </c>
       <c r="C3" s="1">
-        <v>1048619</v>
+        <v>911563</v>
       </c>
       <c r="D3" s="1">
-        <v>911563</v>
+        <v>813357</v>
       </c>
       <c r="E3" s="1">
-        <v>813357</v>
+        <v>1051807</v>
       </c>
       <c r="F3" s="1">
-        <v>1051807</v>
+        <v>1007151</v>
       </c>
       <c r="G3" s="1">
-        <v>1007151</v>
-      </c>
-      <c r="H3" s="1">
         <v>5040946</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:8">
+    <row r="4" ht="15" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>120939</v>
+        <v>827428</v>
       </c>
       <c r="C4" s="1">
-        <v>827428</v>
+        <v>960285</v>
       </c>
       <c r="D4" s="1">
-        <v>960285</v>
+        <v>844763</v>
       </c>
       <c r="E4" s="1">
-        <v>844763</v>
+        <v>868710</v>
       </c>
       <c r="F4" s="1">
-        <v>868710</v>
+        <v>807091</v>
       </c>
       <c r="G4" s="1">
-        <v>807091</v>
-      </c>
-      <c r="H4" s="1">
         <v>4429216</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:8">
+    <row r="5" ht="15" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>95026</v>
+        <v>545463</v>
       </c>
       <c r="C5" s="1">
-        <v>545463</v>
+        <v>392940</v>
       </c>
       <c r="D5" s="1">
-        <v>392940</v>
+        <v>287115</v>
       </c>
       <c r="E5" s="1">
-        <v>287115</v>
+        <v>326232</v>
       </c>
       <c r="F5" s="1">
-        <v>326232</v>
+        <v>247243</v>
       </c>
       <c r="G5" s="1">
-        <v>247243</v>
-      </c>
-      <c r="H5" s="1">
         <v>1894019</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:8">
+    <row r="6" ht="15" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>63047</v>
+        <v>661276</v>
       </c>
       <c r="C6" s="1">
-        <v>661276</v>
+        <v>610692</v>
       </c>
       <c r="D6" s="1">
-        <v>610692</v>
+        <v>441697</v>
       </c>
       <c r="E6" s="1">
-        <v>441697</v>
+        <v>322562</v>
       </c>
       <c r="F6" s="1">
-        <v>322562</v>
+        <v>147445</v>
       </c>
       <c r="G6" s="1">
-        <v>147445</v>
-      </c>
-      <c r="H6" s="1">
         <v>2246719</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:8">
+    <row r="7" ht="15" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>56679</v>
+        <v>504648</v>
       </c>
       <c r="C7" s="1">
-        <v>504648</v>
+        <v>377568</v>
       </c>
       <c r="D7" s="1">
-        <v>377568</v>
+        <v>135296</v>
       </c>
       <c r="E7" s="1">
-        <v>135296</v>
+        <v>91310</v>
       </c>
       <c r="F7" s="1">
-        <v>91310</v>
+        <v>33457</v>
       </c>
       <c r="G7" s="1">
-        <v>33457</v>
-      </c>
-      <c r="H7" s="1">
         <v>1198958</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="1:8">
+    <row r="8" ht="15" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>57860</v>
+        <v>170972</v>
       </c>
       <c r="C8" s="1">
-        <v>170972</v>
+        <v>133625</v>
       </c>
       <c r="D8" s="1">
-        <v>133625</v>
+        <v>120433</v>
       </c>
       <c r="E8" s="1">
-        <v>120433</v>
+        <v>96641</v>
       </c>
       <c r="F8" s="1">
-        <v>96641</v>
+        <v>27329</v>
       </c>
       <c r="G8" s="1">
-        <v>27329</v>
-      </c>
-      <c r="H8" s="1">
         <v>606860</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:8">
+    <row r="9" ht="15" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>46694</v>
+        <v>136665</v>
       </c>
       <c r="C9" s="1">
-        <v>136665</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1605,76 +1584,67 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
         <v>183359</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="1:8">
+    <row r="10" ht="15" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>59365</v>
+        <v>399048</v>
       </c>
       <c r="C10" s="1">
-        <v>399048</v>
+        <v>486698</v>
       </c>
       <c r="D10" s="1">
-        <v>486698</v>
+        <v>496745</v>
       </c>
       <c r="E10" s="1">
-        <v>496745</v>
+        <v>737354</v>
       </c>
       <c r="F10" s="1">
-        <v>737354</v>
+        <v>720668</v>
       </c>
       <c r="G10" s="1">
-        <v>720668</v>
-      </c>
-      <c r="H10" s="1">
         <v>2899878</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="1:8">
+    <row r="11" ht="15" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>54513</v>
+        <v>367199</v>
       </c>
       <c r="C11" s="1">
-        <v>367199</v>
+        <v>179610</v>
       </c>
       <c r="D11" s="1">
-        <v>179610</v>
+        <v>105639</v>
       </c>
       <c r="E11" s="1">
-        <v>105639</v>
+        <v>127798</v>
       </c>
       <c r="F11" s="1">
-        <v>127798</v>
+        <v>94304</v>
       </c>
       <c r="G11" s="1">
-        <v>94304</v>
-      </c>
-      <c r="H11" s="1">
         <v>929063</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:8">
+    <row r="12" ht="15" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>49361</v>
+        <v>248464</v>
       </c>
       <c r="C12" s="1">
-        <v>248464</v>
+        <v>62379</v>
       </c>
       <c r="D12" s="1">
-        <v>62379</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -1683,466 +1653,412 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
         <v>360204</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="1:8">
+    <row r="13" ht="15" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>56102</v>
+        <v>444647</v>
       </c>
       <c r="C13" s="1">
-        <v>444647</v>
+        <v>92953</v>
       </c>
       <c r="D13" s="1">
-        <v>92953</v>
+        <v>70438</v>
       </c>
       <c r="E13" s="1">
-        <v>70438</v>
+        <v>375</v>
       </c>
       <c r="F13" s="1">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
         <v>664515</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="1:8">
+    <row r="14" ht="15" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>36154</v>
+        <v>330626</v>
       </c>
       <c r="C14" s="1">
-        <v>330626</v>
+        <v>437787</v>
       </c>
       <c r="D14" s="1">
-        <v>437787</v>
+        <v>213838</v>
       </c>
       <c r="E14" s="1">
-        <v>213838</v>
+        <v>122691</v>
       </c>
       <c r="F14" s="1">
-        <v>122691</v>
+        <v>63307</v>
       </c>
       <c r="G14" s="1">
-        <v>63307</v>
-      </c>
-      <c r="H14" s="1">
         <v>1204403</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="1:8">
+    <row r="15" ht="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>54200</v>
+        <v>388963</v>
       </c>
       <c r="C15" s="1">
-        <v>388963</v>
+        <v>343851</v>
       </c>
       <c r="D15" s="1">
-        <v>343851</v>
+        <v>285965</v>
       </c>
       <c r="E15" s="1">
-        <v>285965</v>
+        <v>271541</v>
       </c>
       <c r="F15" s="1">
-        <v>271541</v>
+        <v>190839</v>
       </c>
       <c r="G15" s="1">
-        <v>190839</v>
-      </c>
-      <c r="H15" s="1">
         <v>1535359</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="1:8">
+    <row r="16" ht="15" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1">
-        <v>42847</v>
+        <v>271622</v>
       </c>
       <c r="C16" s="1">
-        <v>271622</v>
+        <v>130359</v>
       </c>
       <c r="D16" s="1">
-        <v>130359</v>
+        <v>108868</v>
       </c>
       <c r="E16" s="1">
-        <v>108868</v>
+        <v>43960</v>
       </c>
       <c r="F16" s="1">
-        <v>43960</v>
+        <v>7578</v>
       </c>
       <c r="G16" s="1">
-        <v>7578</v>
-      </c>
-      <c r="H16" s="1">
         <v>605234</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="1:8">
+    <row r="17" ht="15" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>45471</v>
+        <v>318199</v>
       </c>
       <c r="C17" s="1">
-        <v>318199</v>
+        <v>349668</v>
       </c>
       <c r="D17" s="1">
-        <v>349668</v>
+        <v>303304</v>
       </c>
       <c r="E17" s="1">
-        <v>303304</v>
+        <v>315320</v>
       </c>
       <c r="F17" s="1">
-        <v>315320</v>
+        <v>277180</v>
       </c>
       <c r="G17" s="1">
-        <v>277180</v>
-      </c>
-      <c r="H17" s="1">
         <v>1609142</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="1:8">
+    <row r="18" ht="15" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>39917</v>
+        <v>268097</v>
       </c>
       <c r="C18" s="1">
-        <v>268097</v>
+        <v>199846</v>
       </c>
       <c r="D18" s="1">
-        <v>199846</v>
+        <v>176305</v>
       </c>
       <c r="E18" s="1">
-        <v>176305</v>
+        <v>212718</v>
       </c>
       <c r="F18" s="1">
-        <v>212718</v>
+        <v>168735</v>
       </c>
       <c r="G18" s="1">
-        <v>168735</v>
-      </c>
-      <c r="H18" s="1">
         <v>1065618</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="1:8">
+    <row r="19" ht="15" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="1">
-        <v>24979</v>
+        <v>138419</v>
       </c>
       <c r="C19" s="1">
-        <v>138419</v>
+        <v>159935</v>
       </c>
       <c r="D19" s="1">
-        <v>159935</v>
+        <v>261077</v>
       </c>
       <c r="E19" s="1">
-        <v>261077</v>
+        <v>367103</v>
       </c>
       <c r="F19" s="1">
-        <v>367103</v>
+        <v>346302</v>
       </c>
       <c r="G19" s="1">
-        <v>346302</v>
-      </c>
-      <c r="H19" s="1">
         <v>1297815</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="1:8">
+    <row r="20" ht="15" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>20826</v>
+        <v>138587</v>
       </c>
       <c r="C20" s="1">
-        <v>138587</v>
+        <v>76094</v>
       </c>
       <c r="D20" s="1">
-        <v>76094</v>
+        <v>64143</v>
       </c>
       <c r="E20" s="1">
-        <v>64143</v>
+        <v>72181</v>
       </c>
       <c r="F20" s="1">
-        <v>72181</v>
+        <v>78804</v>
       </c>
       <c r="G20" s="1">
-        <v>78804</v>
-      </c>
-      <c r="H20" s="1">
         <v>450635</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="1:8">
+    <row r="21" ht="15" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="1">
-        <v>24461</v>
+        <v>211750</v>
       </c>
       <c r="C21" s="1">
-        <v>211750</v>
+        <v>105478</v>
       </c>
       <c r="D21" s="1">
-        <v>105478</v>
+        <v>71441</v>
       </c>
       <c r="E21" s="1">
-        <v>71441</v>
+        <v>5572</v>
       </c>
       <c r="F21" s="1">
-        <v>5572</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
         <v>418702</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="1:8">
+    <row r="22" ht="15" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="1">
-        <v>24149</v>
+        <v>177153</v>
       </c>
       <c r="C22" s="1">
-        <v>177153</v>
+        <v>180558</v>
       </c>
       <c r="D22" s="1">
-        <v>180558</v>
+        <v>182666</v>
       </c>
       <c r="E22" s="1">
-        <v>182666</v>
+        <v>219183</v>
       </c>
       <c r="F22" s="1">
-        <v>219183</v>
+        <v>235392</v>
       </c>
       <c r="G22" s="1">
-        <v>235392</v>
-      </c>
-      <c r="H22" s="1">
         <v>1019101</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="1:8">
+    <row r="23" ht="15" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="1">
-        <v>26132</v>
+        <v>187557</v>
       </c>
       <c r="C23" s="1">
-        <v>187557</v>
+        <v>118498</v>
       </c>
       <c r="D23" s="1">
-        <v>118498</v>
+        <v>25242</v>
       </c>
       <c r="E23" s="1">
-        <v>25242</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
         <v>357429</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="1:8">
+    <row r="24" ht="15" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="1">
-        <v>23198</v>
+        <v>178478</v>
       </c>
       <c r="C24" s="1">
-        <v>178478</v>
+        <v>135746</v>
       </c>
       <c r="D24" s="1">
-        <v>135746</v>
+        <v>123926</v>
       </c>
       <c r="E24" s="1">
-        <v>123926</v>
+        <v>77143</v>
       </c>
       <c r="F24" s="1">
-        <v>77143</v>
+        <v>287</v>
       </c>
       <c r="G24" s="1">
-        <v>287</v>
-      </c>
-      <c r="H24" s="1">
         <v>538778</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="1:8">
+    <row r="25" ht="15" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>17088</v>
+        <v>205324</v>
       </c>
       <c r="C25" s="1">
-        <v>205324</v>
+        <v>164531</v>
       </c>
       <c r="D25" s="1">
-        <v>164531</v>
+        <v>120158</v>
       </c>
       <c r="E25" s="1">
-        <v>120158</v>
+        <v>90866</v>
       </c>
       <c r="F25" s="1">
-        <v>90866</v>
+        <v>43369</v>
       </c>
       <c r="G25" s="1">
-        <v>43369</v>
-      </c>
-      <c r="H25" s="1">
         <v>641336</v>
       </c>
     </row>
-    <row r="26" ht="15" spans="1:8">
+    <row r="26" ht="15" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>18786</v>
+        <v>106611</v>
       </c>
       <c r="C26" s="1">
-        <v>106611</v>
+        <v>114170</v>
       </c>
       <c r="D26" s="1">
-        <v>114170</v>
+        <v>6942</v>
       </c>
       <c r="E26" s="1">
-        <v>6942</v>
+        <v>4864</v>
       </c>
       <c r="F26" s="1">
-        <v>4864</v>
+        <v>3648</v>
       </c>
       <c r="G26" s="1">
-        <v>3648</v>
-      </c>
-      <c r="H26" s="1">
         <v>255021</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="1:8">
+    <row r="27" ht="15" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="1">
-        <v>17243</v>
+        <v>116610</v>
       </c>
       <c r="C27" s="1">
-        <v>116610</v>
+        <v>152215</v>
       </c>
       <c r="D27" s="1">
-        <v>152215</v>
+        <v>149706</v>
       </c>
       <c r="E27" s="1">
-        <v>149706</v>
+        <v>173035</v>
       </c>
       <c r="F27" s="1">
-        <v>173035</v>
+        <v>146899</v>
       </c>
       <c r="G27" s="1">
-        <v>146899</v>
-      </c>
-      <c r="H27" s="1">
         <v>755708</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="1:8">
+    <row r="28" ht="15" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>21761</v>
+        <v>100620</v>
       </c>
       <c r="C28" s="1">
-        <v>100620</v>
+        <v>238660</v>
       </c>
       <c r="D28" s="1">
-        <v>238660</v>
+        <v>279006</v>
       </c>
       <c r="E28" s="1">
-        <v>279006</v>
+        <v>288582</v>
       </c>
       <c r="F28" s="1">
-        <v>288582</v>
+        <v>152311</v>
       </c>
       <c r="G28" s="1">
-        <v>152311</v>
-      </c>
-      <c r="H28" s="1">
         <v>1080940</v>
       </c>
     </row>
-    <row r="29" ht="15" spans="1:8">
+    <row r="29" ht="15" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="1">
-        <v>16418</v>
+        <v>85487</v>
       </c>
       <c r="C29" s="1">
-        <v>85487</v>
+        <v>102583</v>
       </c>
       <c r="D29" s="1">
-        <v>102583</v>
+        <v>112939</v>
       </c>
       <c r="E29" s="1">
-        <v>112939</v>
+        <v>164106</v>
       </c>
       <c r="F29" s="1">
-        <v>164106</v>
+        <v>110244</v>
       </c>
       <c r="G29" s="1">
-        <v>110244</v>
-      </c>
-      <c r="H29" s="1">
         <v>591777</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="1:8">
+    <row r="30" ht="15" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="1">
-        <v>14415</v>
+        <v>135432</v>
       </c>
       <c r="C30" s="1">
-        <v>135432</v>
+        <v>16857</v>
       </c>
       <c r="D30" s="1">
-        <v>16857</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -2151,76 +2067,67 @@
         <v>0</v>
       </c>
       <c r="G30" s="1">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1">
         <v>166704</v>
       </c>
     </row>
-    <row r="31" ht="15" spans="1:8">
+    <row r="31" ht="15" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="1">
-        <v>8268</v>
+        <v>48129</v>
       </c>
       <c r="C31" s="1">
-        <v>48129</v>
+        <v>11449</v>
       </c>
       <c r="D31" s="1">
-        <v>11449</v>
+        <v>14124</v>
       </c>
       <c r="E31" s="1">
-        <v>14124</v>
+        <v>19638</v>
       </c>
       <c r="F31" s="1">
-        <v>19638</v>
+        <v>27409</v>
       </c>
       <c r="G31" s="1">
-        <v>27409</v>
-      </c>
-      <c r="H31" s="1">
         <v>129017</v>
       </c>
     </row>
-    <row r="32" ht="15" spans="1:8">
+    <row r="32" ht="15" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="1">
-        <v>10049</v>
+        <v>78709</v>
       </c>
       <c r="C32" s="1">
-        <v>78709</v>
+        <v>17309</v>
       </c>
       <c r="D32" s="1">
-        <v>17309</v>
+        <v>11895</v>
       </c>
       <c r="E32" s="1">
-        <v>11895</v>
+        <v>4827</v>
       </c>
       <c r="F32" s="1">
-        <v>4827</v>
+        <v>359</v>
       </c>
       <c r="G32" s="1">
-        <v>359</v>
-      </c>
-      <c r="H32" s="1">
         <v>123148</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="1:8">
+    <row r="33" ht="15" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="1">
-        <v>12906</v>
+        <v>47870</v>
       </c>
       <c r="C33" s="1">
-        <v>47870</v>
+        <v>154</v>
       </c>
       <c r="D33" s="1">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -2229,47 +2136,41 @@
         <v>0</v>
       </c>
       <c r="G33" s="1">
-        <v>0</v>
-      </c>
-      <c r="H33" s="1">
         <v>60930</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="1:8">
+    <row r="34" ht="15" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="1">
-        <v>12485</v>
+        <v>69644</v>
       </c>
       <c r="C34" s="1">
-        <v>69644</v>
+        <v>33386</v>
       </c>
       <c r="D34" s="1">
-        <v>33386</v>
+        <v>17373</v>
       </c>
       <c r="E34" s="1">
-        <v>17373</v>
+        <v>6443</v>
       </c>
       <c r="F34" s="1">
-        <v>6443</v>
+        <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
         <v>139331</v>
       </c>
     </row>
-    <row r="35" ht="15" spans="1:8">
+    <row r="35" ht="15" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="1">
-        <v>11873</v>
+        <v>82807</v>
       </c>
       <c r="C35" s="1">
-        <v>82807</v>
+        <v>0</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -2281,21 +2182,18 @@
         <v>0</v>
       </c>
       <c r="G35" s="1">
-        <v>0</v>
-      </c>
-      <c r="H35" s="1">
         <v>94680</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="1:8">
+    <row r="36" ht="15" spans="1:7">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="1">
-        <v>11636</v>
+        <v>21559</v>
       </c>
       <c r="C36" s="1">
-        <v>21559</v>
+        <v>0</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
@@ -2307,76 +2205,67 @@
         <v>0</v>
       </c>
       <c r="G36" s="1">
-        <v>0</v>
-      </c>
-      <c r="H36" s="1">
         <v>33195</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="1:8">
+    <row r="37" ht="15" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="1">
-        <v>10518</v>
+        <v>56442</v>
       </c>
       <c r="C37" s="1">
-        <v>56442</v>
+        <v>21094</v>
       </c>
       <c r="D37" s="1">
-        <v>21094</v>
+        <v>415</v>
       </c>
       <c r="E37" s="1">
-        <v>415</v>
+        <v>0</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
       </c>
       <c r="G37" s="1">
-        <v>0</v>
-      </c>
-      <c r="H37" s="1">
         <v>88469</v>
       </c>
     </row>
-    <row r="38" ht="15" spans="1:8">
+    <row r="38" ht="15" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="1">
-        <v>8858</v>
+        <v>86139</v>
       </c>
       <c r="C38" s="1">
-        <v>86139</v>
+        <v>105564</v>
       </c>
       <c r="D38" s="1">
-        <v>105564</v>
+        <v>168757</v>
       </c>
       <c r="E38" s="1">
-        <v>168757</v>
+        <v>123586</v>
       </c>
       <c r="F38" s="1">
-        <v>123586</v>
+        <v>64939</v>
       </c>
       <c r="G38" s="1">
-        <v>64939</v>
-      </c>
-      <c r="H38" s="1">
         <v>557843</v>
       </c>
     </row>
-    <row r="39" ht="15" spans="1:8">
+    <row r="39" ht="15" spans="1:7">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="1">
-        <v>9415</v>
+        <v>53284</v>
       </c>
       <c r="C39" s="1">
-        <v>53284</v>
+        <v>4888</v>
       </c>
       <c r="D39" s="1">
-        <v>4888</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -2385,177 +2274,156 @@
         <v>0</v>
       </c>
       <c r="G39" s="1">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
         <v>67587</v>
       </c>
     </row>
-    <row r="40" ht="15" spans="1:8">
+    <row r="40" ht="15" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="1">
-        <v>9242</v>
+        <v>84702</v>
       </c>
       <c r="C40" s="1">
-        <v>84702</v>
+        <v>45852</v>
       </c>
       <c r="D40" s="1">
-        <v>45852</v>
+        <v>24015</v>
       </c>
       <c r="E40" s="1">
-        <v>24015</v>
+        <v>28536</v>
       </c>
       <c r="F40" s="1">
-        <v>28536</v>
+        <v>16507</v>
       </c>
       <c r="G40" s="1">
-        <v>16507</v>
-      </c>
-      <c r="H40" s="1">
         <v>208854</v>
       </c>
     </row>
-    <row r="41" ht="15" spans="1:8">
+    <row r="41" ht="15" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="1">
-        <v>5371</v>
+        <v>81504</v>
       </c>
       <c r="C41" s="1">
-        <v>81504</v>
+        <v>102620</v>
       </c>
       <c r="D41" s="1">
-        <v>102620</v>
+        <v>174675</v>
       </c>
       <c r="E41" s="1">
-        <v>174675</v>
+        <v>85419</v>
       </c>
       <c r="F41" s="1">
-        <v>85419</v>
+        <v>39582</v>
       </c>
       <c r="G41" s="1">
-        <v>39582</v>
-      </c>
-      <c r="H41" s="1">
         <v>489171</v>
       </c>
     </row>
-    <row r="42" ht="15" spans="1:8">
+    <row r="42" ht="15" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="1">
-        <v>7070</v>
+        <v>51998</v>
       </c>
       <c r="C42" s="1">
-        <v>51998</v>
+        <v>32850</v>
       </c>
       <c r="D42" s="1">
-        <v>32850</v>
+        <v>8600</v>
       </c>
       <c r="E42" s="1">
-        <v>8600</v>
+        <v>1068</v>
       </c>
       <c r="F42" s="1">
-        <v>1068</v>
+        <v>1125</v>
       </c>
       <c r="G42" s="1">
-        <v>1125</v>
-      </c>
-      <c r="H42" s="1">
         <v>102711</v>
       </c>
     </row>
-    <row r="43" ht="15" spans="1:8">
+    <row r="43" ht="15" spans="1:7">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="1">
-        <v>5121</v>
+        <v>40176</v>
       </c>
       <c r="C43" s="1">
-        <v>40176</v>
+        <v>17814</v>
       </c>
       <c r="D43" s="1">
-        <v>17814</v>
+        <v>369</v>
       </c>
       <c r="E43" s="1">
-        <v>369</v>
+        <v>2047</v>
       </c>
       <c r="F43" s="1">
-        <v>2047</v>
+        <v>59</v>
       </c>
       <c r="G43" s="1">
-        <v>59</v>
-      </c>
-      <c r="H43" s="1">
         <v>65586</v>
       </c>
     </row>
-    <row r="44" ht="15" spans="1:8">
+    <row r="44" ht="15" spans="1:7">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="1">
-        <v>8502</v>
+        <v>71779</v>
       </c>
       <c r="C44" s="1">
-        <v>71779</v>
+        <v>80156</v>
       </c>
       <c r="D44" s="1">
-        <v>80156</v>
+        <v>65642</v>
       </c>
       <c r="E44" s="1">
-        <v>65642</v>
+        <v>78110</v>
       </c>
       <c r="F44" s="1">
-        <v>78110</v>
+        <v>73176</v>
       </c>
       <c r="G44" s="1">
-        <v>73176</v>
-      </c>
-      <c r="H44" s="1">
         <v>377365</v>
       </c>
     </row>
-    <row r="45" ht="15" spans="1:8">
+    <row r="45" ht="15" spans="1:7">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="1">
-        <v>6146</v>
+        <v>57359</v>
       </c>
       <c r="C45" s="1">
-        <v>57359</v>
+        <v>30269</v>
       </c>
       <c r="D45" s="1">
-        <v>30269</v>
+        <v>4682</v>
       </c>
       <c r="E45" s="1">
-        <v>4682</v>
+        <v>2</v>
       </c>
       <c r="F45" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G45" s="1">
-        <v>0</v>
-      </c>
-      <c r="H45" s="1">
         <v>98458</v>
       </c>
     </row>
-    <row r="46" ht="15" spans="1:8">
+    <row r="46" ht="15" spans="1:7">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="1">
-        <v>4913</v>
+        <v>44120</v>
       </c>
       <c r="C46" s="1">
-        <v>44120</v>
+        <v>0</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
@@ -2567,21 +2435,18 @@
         <v>0</v>
       </c>
       <c r="G46" s="1">
-        <v>0</v>
-      </c>
-      <c r="H46" s="1">
         <v>49033</v>
       </c>
     </row>
-    <row r="47" ht="15" spans="1:8">
+    <row r="47" ht="15" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="1">
-        <v>3309</v>
+        <v>18762</v>
       </c>
       <c r="C47" s="1">
-        <v>18762</v>
+        <v>0</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -2590,128 +2455,113 @@
         <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G47" s="1">
-        <v>7</v>
-      </c>
-      <c r="H47" s="1">
         <v>22078</v>
       </c>
     </row>
-    <row r="48" ht="15" spans="1:8">
+    <row r="48" ht="15" spans="1:7">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="1">
-        <v>4256</v>
+        <v>47425</v>
       </c>
       <c r="C48" s="1">
-        <v>47425</v>
+        <v>61303</v>
       </c>
       <c r="D48" s="1">
-        <v>61303</v>
+        <v>99255</v>
       </c>
       <c r="E48" s="1">
-        <v>99255</v>
+        <v>122460</v>
       </c>
       <c r="F48" s="1">
-        <v>122460</v>
+        <v>85282</v>
       </c>
       <c r="G48" s="1">
-        <v>85282</v>
-      </c>
-      <c r="H48" s="1">
         <v>419981</v>
       </c>
     </row>
-    <row r="49" ht="15" spans="1:8">
+    <row r="49" ht="15" spans="1:7">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="1">
-        <v>3831</v>
+        <v>33479</v>
       </c>
       <c r="C49" s="1">
-        <v>33479</v>
+        <v>41464</v>
       </c>
       <c r="D49" s="1">
-        <v>41464</v>
+        <v>9026</v>
       </c>
       <c r="E49" s="1">
-        <v>9026</v>
+        <v>0</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
       </c>
       <c r="G49" s="1">
-        <v>0</v>
-      </c>
-      <c r="H49" s="1">
         <v>87800</v>
       </c>
     </row>
-    <row r="50" ht="15" spans="1:8">
+    <row r="50" ht="15" spans="1:7">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="1">
-        <v>5545</v>
+        <v>54932</v>
       </c>
       <c r="C50" s="1">
-        <v>54932</v>
+        <v>80333</v>
       </c>
       <c r="D50" s="1">
-        <v>80333</v>
+        <v>94366</v>
       </c>
       <c r="E50" s="1">
-        <v>94366</v>
+        <v>93503</v>
       </c>
       <c r="F50" s="1">
-        <v>93503</v>
+        <v>88303</v>
       </c>
       <c r="G50" s="1">
-        <v>88303</v>
-      </c>
-      <c r="H50" s="1">
         <v>416982</v>
       </c>
     </row>
-    <row r="51" ht="15" spans="1:8">
+    <row r="51" ht="15" spans="1:7">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B51" s="1">
-        <v>4367</v>
+        <v>47935</v>
       </c>
       <c r="C51" s="1">
-        <v>47935</v>
+        <v>66071</v>
       </c>
       <c r="D51" s="1">
-        <v>66071</v>
+        <v>61065</v>
       </c>
       <c r="E51" s="1">
-        <v>61065</v>
+        <v>86481</v>
       </c>
       <c r="F51" s="1">
-        <v>86481</v>
+        <v>86596</v>
       </c>
       <c r="G51" s="1">
-        <v>86596</v>
-      </c>
-      <c r="H51" s="1">
         <v>352515</v>
       </c>
     </row>
-    <row r="52" ht="15" spans="1:8">
+    <row r="52" ht="15" spans="1:7">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B52" s="1">
-        <v>2354</v>
+        <v>12001</v>
       </c>
       <c r="C52" s="1">
-        <v>12001</v>
+        <v>0</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -2723,180 +2573,159 @@
         <v>0</v>
       </c>
       <c r="G52" s="1">
-        <v>0</v>
-      </c>
-      <c r="H52" s="1">
         <v>14355</v>
       </c>
     </row>
-    <row r="53" ht="15" spans="1:8">
+    <row r="53" ht="15" spans="1:7">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B53" s="1">
-        <v>3000</v>
+        <v>44725</v>
       </c>
       <c r="C53" s="1">
-        <v>44725</v>
+        <v>33189</v>
       </c>
       <c r="D53" s="1">
-        <v>33189</v>
+        <v>52014</v>
       </c>
       <c r="E53" s="1">
-        <v>52014</v>
+        <v>216045</v>
       </c>
       <c r="F53" s="1">
-        <v>216045</v>
+        <v>395770</v>
       </c>
       <c r="G53" s="1">
-        <v>395770</v>
-      </c>
-      <c r="H53" s="1">
         <v>744743</v>
       </c>
     </row>
-    <row r="54" ht="15" spans="1:8">
+    <row r="54" ht="15" spans="1:7">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="1">
-        <v>3230</v>
+        <v>20271</v>
       </c>
       <c r="C54" s="1">
-        <v>20271</v>
+        <v>18151</v>
       </c>
       <c r="D54" s="1">
-        <v>18151</v>
+        <v>28812</v>
       </c>
       <c r="E54" s="1">
-        <v>28812</v>
+        <v>30724</v>
       </c>
       <c r="F54" s="1">
-        <v>30724</v>
+        <v>29904</v>
       </c>
       <c r="G54" s="1">
-        <v>29904</v>
-      </c>
-      <c r="H54" s="1">
         <v>131092</v>
       </c>
     </row>
-    <row r="55" ht="15" spans="1:8">
+    <row r="55" ht="15" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="1">
-        <v>4058</v>
+        <v>53127</v>
       </c>
       <c r="C55" s="1">
-        <v>53127</v>
+        <v>64241</v>
       </c>
       <c r="D55" s="1">
-        <v>64241</v>
+        <v>98294</v>
       </c>
       <c r="E55" s="1">
-        <v>98294</v>
+        <v>81888</v>
       </c>
       <c r="F55" s="1">
-        <v>81888</v>
+        <v>80251</v>
       </c>
       <c r="G55" s="1">
-        <v>80251</v>
-      </c>
-      <c r="H55" s="1">
         <v>381859</v>
       </c>
     </row>
-    <row r="56" ht="15" spans="1:8">
+    <row r="56" ht="15" spans="1:7">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B56" s="1">
-        <v>3077</v>
+        <v>52889</v>
       </c>
       <c r="C56" s="1">
-        <v>52889</v>
+        <v>85447</v>
       </c>
       <c r="D56" s="1">
-        <v>85447</v>
+        <v>95737</v>
       </c>
       <c r="E56" s="1">
-        <v>95737</v>
+        <v>133512</v>
       </c>
       <c r="F56" s="1">
-        <v>133512</v>
+        <v>54129</v>
       </c>
       <c r="G56" s="1">
-        <v>54129</v>
-      </c>
-      <c r="H56" s="1">
         <v>424791</v>
       </c>
     </row>
-    <row r="57" ht="15" spans="1:8">
+    <row r="57" ht="15" spans="1:7">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="1">
-        <v>3209</v>
+        <v>28460</v>
       </c>
       <c r="C57" s="1">
-        <v>28460</v>
+        <v>18725</v>
       </c>
       <c r="D57" s="1">
-        <v>18725</v>
+        <v>14978</v>
       </c>
       <c r="E57" s="1">
-        <v>14978</v>
+        <v>20881</v>
       </c>
       <c r="F57" s="1">
-        <v>20881</v>
+        <v>15883</v>
       </c>
       <c r="G57" s="1">
-        <v>15883</v>
-      </c>
-      <c r="H57" s="1">
         <v>102136</v>
       </c>
     </row>
-    <row r="58" ht="15" spans="1:8">
+    <row r="58" ht="15" spans="1:7">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="1">
-        <v>2508</v>
+        <v>26188</v>
       </c>
       <c r="C58" s="1">
-        <v>26188</v>
+        <v>5502</v>
       </c>
       <c r="D58" s="1">
-        <v>5502</v>
+        <v>7567</v>
       </c>
       <c r="E58" s="1">
-        <v>7567</v>
+        <v>4145</v>
       </c>
       <c r="F58" s="1">
-        <v>4145</v>
+        <v>1778</v>
       </c>
       <c r="G58" s="1">
-        <v>1778</v>
-      </c>
-      <c r="H58" s="1">
         <v>47688</v>
       </c>
     </row>
-    <row r="59" ht="15" spans="1:8">
+    <row r="59" ht="15" spans="1:7">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B59" s="1">
-        <v>2075</v>
+        <v>11669</v>
       </c>
       <c r="C59" s="1">
-        <v>11669</v>
+        <v>13388</v>
       </c>
       <c r="D59" s="1">
-        <v>13388</v>
+        <v>0</v>
       </c>
       <c r="E59" s="1">
         <v>0</v>
@@ -2905,24 +2734,21 @@
         <v>0</v>
       </c>
       <c r="G59" s="1">
-        <v>0</v>
-      </c>
-      <c r="H59" s="1">
         <v>27132</v>
       </c>
     </row>
-    <row r="60" ht="15" spans="1:8">
+    <row r="60" ht="15" spans="1:7">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B60" s="1">
-        <v>2506</v>
+        <v>15754</v>
       </c>
       <c r="C60" s="1">
-        <v>15754</v>
+        <v>5178</v>
       </c>
       <c r="D60" s="1">
-        <v>5178</v>
+        <v>0</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -2931,50 +2757,44 @@
         <v>0</v>
       </c>
       <c r="G60" s="1">
-        <v>0</v>
-      </c>
-      <c r="H60" s="1">
         <v>23438</v>
       </c>
     </row>
-    <row r="61" ht="15" spans="1:8">
+    <row r="61" ht="15" spans="1:7">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="1">
-        <v>2911</v>
+        <v>24602</v>
       </c>
       <c r="C61" s="1">
-        <v>24602</v>
+        <v>34009</v>
       </c>
       <c r="D61" s="1">
-        <v>34009</v>
+        <v>33110</v>
       </c>
       <c r="E61" s="1">
-        <v>33110</v>
+        <v>42574</v>
       </c>
       <c r="F61" s="1">
-        <v>42574</v>
+        <v>40915</v>
       </c>
       <c r="G61" s="1">
-        <v>40915</v>
-      </c>
-      <c r="H61" s="1">
         <v>178121</v>
       </c>
     </row>
-    <row r="62" ht="15" spans="1:8">
+    <row r="62" ht="15" spans="1:7">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="1">
-        <v>2787</v>
+        <v>27631</v>
       </c>
       <c r="C62" s="1">
-        <v>27631</v>
+        <v>5273</v>
       </c>
       <c r="D62" s="1">
-        <v>5273</v>
+        <v>0</v>
       </c>
       <c r="E62" s="1">
         <v>0</v>
@@ -2983,99 +2803,87 @@
         <v>0</v>
       </c>
       <c r="G62" s="1">
-        <v>0</v>
-      </c>
-      <c r="H62" s="1">
         <v>35691</v>
       </c>
     </row>
-    <row r="63" ht="15" spans="1:8">
+    <row r="63" ht="15" spans="1:7">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B63" s="1">
-        <v>2536</v>
+        <v>13631</v>
       </c>
       <c r="C63" s="1">
-        <v>13631</v>
+        <v>20355</v>
       </c>
       <c r="D63" s="1">
-        <v>20355</v>
+        <v>34141</v>
       </c>
       <c r="E63" s="1">
-        <v>34141</v>
+        <v>5658</v>
       </c>
       <c r="F63" s="1">
-        <v>5658</v>
+        <v>1273</v>
       </c>
       <c r="G63" s="1">
-        <v>1273</v>
-      </c>
-      <c r="H63" s="1">
         <v>77594</v>
       </c>
     </row>
-    <row r="64" ht="15" spans="1:8">
+    <row r="64" ht="15" spans="1:7">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B64" s="1">
-        <v>1617</v>
+        <v>14350</v>
       </c>
       <c r="C64" s="1">
-        <v>14350</v>
+        <v>16033</v>
       </c>
       <c r="D64" s="1">
-        <v>16033</v>
+        <v>16706</v>
       </c>
       <c r="E64" s="1">
-        <v>16706</v>
+        <v>28320</v>
       </c>
       <c r="F64" s="1">
-        <v>28320</v>
+        <v>29586</v>
       </c>
       <c r="G64" s="1">
-        <v>29586</v>
-      </c>
-      <c r="H64" s="1">
         <v>106612</v>
       </c>
     </row>
-    <row r="65" ht="15" spans="1:8">
+    <row r="65" ht="15" spans="1:7">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B65" s="1">
-        <v>1650</v>
+        <v>14387</v>
       </c>
       <c r="C65" s="1">
-        <v>14387</v>
+        <v>12819</v>
       </c>
       <c r="D65" s="1">
-        <v>12819</v>
+        <v>4466</v>
       </c>
       <c r="E65" s="1">
-        <v>4466</v>
+        <v>2240</v>
       </c>
       <c r="F65" s="1">
-        <v>2240</v>
+        <v>3046</v>
       </c>
       <c r="G65" s="1">
-        <v>3046</v>
-      </c>
-      <c r="H65" s="1">
         <v>38608</v>
       </c>
     </row>
-    <row r="66" ht="15" spans="1:8">
+    <row r="66" ht="15" spans="1:7">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B66" s="1">
-        <v>1662</v>
+        <v>2012</v>
       </c>
       <c r="C66" s="1">
-        <v>2012</v>
+        <v>0</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
@@ -3087,177 +2895,156 @@
         <v>0</v>
       </c>
       <c r="G66" s="1">
-        <v>0</v>
-      </c>
-      <c r="H66" s="1">
         <v>3674</v>
       </c>
     </row>
-    <row r="67" ht="15" spans="1:8">
+    <row r="67" ht="15" spans="1:7">
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B67" s="1">
-        <v>1469</v>
+        <v>44544</v>
       </c>
       <c r="C67" s="1">
-        <v>44544</v>
+        <v>71803</v>
       </c>
       <c r="D67" s="1">
-        <v>71803</v>
+        <v>100025</v>
       </c>
       <c r="E67" s="1">
-        <v>100025</v>
+        <v>23088</v>
       </c>
       <c r="F67" s="1">
-        <v>23088</v>
+        <v>10383</v>
       </c>
       <c r="G67" s="1">
-        <v>10383</v>
-      </c>
-      <c r="H67" s="1">
         <v>251312</v>
       </c>
     </row>
-    <row r="68" ht="15" spans="1:8">
+    <row r="68" ht="15" spans="1:7">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B68" s="1">
-        <v>884</v>
+        <v>9270</v>
       </c>
       <c r="C68" s="1">
-        <v>9270</v>
+        <v>16</v>
       </c>
       <c r="D68" s="1">
-        <v>16</v>
+        <v>298</v>
       </c>
       <c r="E68" s="1">
-        <v>298</v>
+        <v>3</v>
       </c>
       <c r="F68" s="1">
-        <v>3</v>
+        <v>347</v>
       </c>
       <c r="G68" s="1">
-        <v>347</v>
-      </c>
-      <c r="H68" s="1">
         <v>10818</v>
       </c>
     </row>
-    <row r="69" ht="15" spans="1:8">
+    <row r="69" ht="15" spans="1:7">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="1">
-        <v>1082</v>
+        <v>7672</v>
       </c>
       <c r="C69" s="1">
-        <v>7672</v>
+        <v>27700</v>
       </c>
       <c r="D69" s="1">
-        <v>27700</v>
+        <v>66097</v>
       </c>
       <c r="E69" s="1">
-        <v>66097</v>
+        <v>68173</v>
       </c>
       <c r="F69" s="1">
-        <v>68173</v>
+        <v>3840</v>
       </c>
       <c r="G69" s="1">
-        <v>3840</v>
-      </c>
-      <c r="H69" s="1">
         <v>174564</v>
       </c>
     </row>
-    <row r="70" ht="15" spans="1:8">
+    <row r="70" ht="15" spans="1:7">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B70" s="1">
-        <v>491</v>
+        <v>1048</v>
       </c>
       <c r="C70" s="1">
-        <v>1048</v>
+        <v>108</v>
       </c>
       <c r="D70" s="1">
-        <v>108</v>
+        <v>473</v>
       </c>
       <c r="E70" s="1">
-        <v>473</v>
+        <v>514</v>
       </c>
       <c r="F70" s="1">
-        <v>514</v>
+        <v>539</v>
       </c>
       <c r="G70" s="1">
-        <v>539</v>
-      </c>
-      <c r="H70" s="1">
         <v>3173</v>
       </c>
     </row>
-    <row r="71" ht="15" spans="1:8">
+    <row r="71" ht="15" spans="1:7">
       <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B71" s="1">
-        <v>881</v>
+        <v>21018</v>
       </c>
       <c r="C71" s="1">
-        <v>21018</v>
+        <v>24684</v>
       </c>
       <c r="D71" s="1">
-        <v>24684</v>
+        <v>20889</v>
       </c>
       <c r="E71" s="1">
-        <v>20889</v>
+        <v>25072</v>
       </c>
       <c r="F71" s="1">
-        <v>25072</v>
+        <v>24565</v>
       </c>
       <c r="G71" s="1">
-        <v>24565</v>
-      </c>
-      <c r="H71" s="1">
         <v>117109</v>
       </c>
     </row>
-    <row r="72" ht="15" spans="1:8">
+    <row r="72" ht="15" spans="1:7">
       <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B72" s="1">
-        <v>325</v>
+        <v>1589</v>
       </c>
       <c r="C72" s="1">
-        <v>1589</v>
+        <v>1444</v>
       </c>
       <c r="D72" s="1">
-        <v>1444</v>
+        <v>17530</v>
       </c>
       <c r="E72" s="1">
-        <v>17530</v>
+        <v>3</v>
       </c>
       <c r="F72" s="1">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G72" s="1">
-        <v>20</v>
-      </c>
-      <c r="H72" s="1">
         <v>20911</v>
       </c>
     </row>
-    <row r="73" ht="15" spans="1:8">
+    <row r="73" ht="15" spans="1:7">
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B73" s="1">
-        <v>455</v>
+        <v>3588</v>
       </c>
       <c r="C73" s="1">
-        <v>3588</v>
+        <v>0</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -3269,76 +3056,67 @@
         <v>0</v>
       </c>
       <c r="G73" s="1">
-        <v>0</v>
-      </c>
-      <c r="H73" s="1">
         <v>4043</v>
       </c>
     </row>
-    <row r="74" ht="15" spans="1:8">
+    <row r="74" ht="15" spans="1:7">
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B74" s="1">
-        <v>501</v>
+        <v>6206</v>
       </c>
       <c r="C74" s="1">
-        <v>6206</v>
+        <v>9260</v>
       </c>
       <c r="D74" s="1">
-        <v>9260</v>
+        <v>19005</v>
       </c>
       <c r="E74" s="1">
-        <v>19005</v>
+        <v>8786</v>
       </c>
       <c r="F74" s="1">
-        <v>8786</v>
+        <v>488</v>
       </c>
       <c r="G74" s="1">
-        <v>488</v>
-      </c>
-      <c r="H74" s="1">
         <v>44246</v>
       </c>
     </row>
-    <row r="75" ht="15" spans="1:8">
+    <row r="75" ht="15" spans="1:7">
       <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B75" s="1">
-        <v>491</v>
+        <v>9592</v>
       </c>
       <c r="C75" s="1">
-        <v>9592</v>
+        <v>16038</v>
       </c>
       <c r="D75" s="1">
-        <v>16038</v>
+        <v>14669</v>
       </c>
       <c r="E75" s="1">
-        <v>14669</v>
+        <v>14619</v>
       </c>
       <c r="F75" s="1">
-        <v>14619</v>
+        <v>2035</v>
       </c>
       <c r="G75" s="1">
-        <v>2035</v>
-      </c>
-      <c r="H75" s="1">
         <v>57444</v>
       </c>
     </row>
-    <row r="76" ht="15" spans="1:8">
+    <row r="76" ht="15" spans="1:7">
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B76" s="1">
-        <v>520</v>
+        <v>13924</v>
       </c>
       <c r="C76" s="1">
-        <v>13924</v>
+        <v>8166</v>
       </c>
       <c r="D76" s="1">
-        <v>8166</v>
+        <v>0</v>
       </c>
       <c r="E76" s="1">
         <v>0</v>
@@ -3347,102 +3125,90 @@
         <v>0</v>
       </c>
       <c r="G76" s="1">
-        <v>0</v>
-      </c>
-      <c r="H76" s="1">
         <v>22610</v>
       </c>
     </row>
-    <row r="77" ht="15" spans="1:8">
+    <row r="77" ht="15" spans="1:7">
       <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B77" s="1">
-        <v>454</v>
+        <v>8328</v>
       </c>
       <c r="C77" s="1">
-        <v>8328</v>
+        <v>25635</v>
       </c>
       <c r="D77" s="1">
-        <v>25635</v>
+        <v>90077</v>
       </c>
       <c r="E77" s="1">
-        <v>90077</v>
+        <v>105104</v>
       </c>
       <c r="F77" s="1">
-        <v>105104</v>
+        <v>112486</v>
       </c>
       <c r="G77" s="1">
-        <v>112486</v>
-      </c>
-      <c r="H77" s="1">
         <v>342084</v>
       </c>
     </row>
-    <row r="78" ht="15" spans="1:8">
+    <row r="78" ht="15" spans="1:7">
       <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B78" s="1">
-        <v>664</v>
+        <v>6494</v>
       </c>
       <c r="C78" s="1">
-        <v>6494</v>
+        <v>7818</v>
       </c>
       <c r="D78" s="1">
-        <v>7818</v>
+        <v>5805</v>
       </c>
       <c r="E78" s="1">
-        <v>5805</v>
+        <v>1670</v>
       </c>
       <c r="F78" s="1">
-        <v>1670</v>
+        <v>467</v>
       </c>
       <c r="G78" s="1">
-        <v>467</v>
-      </c>
-      <c r="H78" s="1">
         <v>22918</v>
       </c>
     </row>
-    <row r="79" ht="15" spans="1:8">
+    <row r="79" ht="15" spans="1:7">
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B79" s="1">
-        <v>411</v>
+        <v>3940</v>
       </c>
       <c r="C79" s="1">
-        <v>3940</v>
+        <v>7774</v>
       </c>
       <c r="D79" s="1">
-        <v>7774</v>
+        <v>11563</v>
       </c>
       <c r="E79" s="1">
-        <v>11563</v>
+        <v>16886</v>
       </c>
       <c r="F79" s="1">
-        <v>16886</v>
+        <v>21832</v>
       </c>
       <c r="G79" s="1">
-        <v>21832</v>
-      </c>
-      <c r="H79" s="1">
         <v>62406</v>
       </c>
     </row>
-    <row r="80" ht="15" spans="1:8">
+    <row r="80" ht="15" spans="1:7">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B80" s="1">
-        <v>408</v>
+        <v>2599</v>
       </c>
       <c r="C80" s="1">
-        <v>2599</v>
+        <v>373</v>
       </c>
       <c r="D80" s="1">
-        <v>373</v>
+        <v>0</v>
       </c>
       <c r="E80" s="1">
         <v>0</v>
@@ -3451,154 +3217,136 @@
         <v>0</v>
       </c>
       <c r="G80" s="1">
-        <v>0</v>
-      </c>
-      <c r="H80" s="1">
         <v>3380</v>
       </c>
     </row>
-    <row r="81" ht="15" spans="1:8">
+    <row r="81" ht="15" spans="1:7">
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B81" s="1">
-        <v>407</v>
+        <v>43609</v>
       </c>
       <c r="C81" s="1">
-        <v>43609</v>
+        <v>105412</v>
       </c>
       <c r="D81" s="1">
-        <v>105412</v>
+        <v>146099</v>
       </c>
       <c r="E81" s="1">
-        <v>146099</v>
+        <v>64773</v>
       </c>
       <c r="F81" s="1">
-        <v>64773</v>
+        <v>14275</v>
       </c>
       <c r="G81" s="1">
-        <v>14275</v>
-      </c>
-      <c r="H81" s="1">
         <v>374575</v>
       </c>
     </row>
-    <row r="82" ht="15" spans="1:8">
+    <row r="82" ht="15" spans="1:7">
       <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B82" s="1">
-        <v>240</v>
+        <v>2979</v>
       </c>
       <c r="C82" s="1">
-        <v>2979</v>
+        <v>1889</v>
       </c>
       <c r="D82" s="1">
-        <v>1889</v>
+        <v>4011</v>
       </c>
       <c r="E82" s="1">
-        <v>4011</v>
+        <v>7895</v>
       </c>
       <c r="F82" s="1">
-        <v>7895</v>
+        <v>5733</v>
       </c>
       <c r="G82" s="1">
-        <v>5733</v>
-      </c>
-      <c r="H82" s="1">
         <v>22747</v>
       </c>
     </row>
-    <row r="83" ht="15" spans="1:8">
+    <row r="83" ht="15" spans="1:7">
       <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B83" s="1">
-        <v>233</v>
+        <v>850</v>
       </c>
       <c r="C83" s="1">
-        <v>850</v>
+        <v>1535</v>
       </c>
       <c r="D83" s="1">
-        <v>1535</v>
+        <v>893</v>
       </c>
       <c r="E83" s="1">
-        <v>893</v>
+        <v>2</v>
       </c>
       <c r="F83" s="1">
-        <v>2</v>
+        <v>323</v>
       </c>
       <c r="G83" s="1">
-        <v>323</v>
-      </c>
-      <c r="H83" s="1">
         <v>3836</v>
       </c>
     </row>
-    <row r="84" ht="15" spans="1:8">
+    <row r="84" ht="15" spans="1:7">
       <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B84" s="1">
-        <v>336</v>
+        <v>2706</v>
       </c>
       <c r="C84" s="1">
-        <v>2706</v>
+        <v>3401</v>
       </c>
       <c r="D84" s="1">
-        <v>3401</v>
+        <v>4106</v>
       </c>
       <c r="E84" s="1">
-        <v>4106</v>
+        <v>3829</v>
       </c>
       <c r="F84" s="1">
-        <v>3829</v>
+        <v>3201</v>
       </c>
       <c r="G84" s="1">
-        <v>3201</v>
-      </c>
-      <c r="H84" s="1">
         <v>17579</v>
       </c>
     </row>
-    <row r="85" ht="15" spans="1:8">
+    <row r="85" ht="15" spans="1:7">
       <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B85" s="1">
-        <v>218</v>
+        <v>1123</v>
       </c>
       <c r="C85" s="1">
-        <v>1123</v>
+        <v>419</v>
       </c>
       <c r="D85" s="1">
-        <v>419</v>
+        <v>1</v>
       </c>
       <c r="E85" s="1">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F85" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G85" s="1">
-        <v>20</v>
-      </c>
-      <c r="H85" s="1">
         <v>1806</v>
       </c>
     </row>
-    <row r="86" ht="15" spans="1:8">
+    <row r="86" ht="15" spans="1:7">
       <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B86" s="1">
-        <v>417</v>
+        <v>7341</v>
       </c>
       <c r="C86" s="1">
-        <v>7341</v>
+        <v>1949</v>
       </c>
       <c r="D86" s="1">
-        <v>1949</v>
+        <v>0</v>
       </c>
       <c r="E86" s="1">
         <v>0</v>
@@ -3607,24 +3355,21 @@
         <v>0</v>
       </c>
       <c r="G86" s="1">
-        <v>0</v>
-      </c>
-      <c r="H86" s="1">
         <v>9707</v>
       </c>
     </row>
-    <row r="87" ht="15" spans="1:8">
+    <row r="87" ht="15" spans="1:7">
       <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B87" s="1">
-        <v>278</v>
+        <v>2607</v>
       </c>
       <c r="C87" s="1">
-        <v>2607</v>
+        <v>1210</v>
       </c>
       <c r="D87" s="1">
-        <v>1210</v>
+        <v>0</v>
       </c>
       <c r="E87" s="1">
         <v>0</v>
@@ -3633,24 +3378,21 @@
         <v>0</v>
       </c>
       <c r="G87" s="1">
-        <v>0</v>
-      </c>
-      <c r="H87" s="1">
         <v>4095</v>
       </c>
     </row>
-    <row r="88" ht="15" spans="1:8">
+    <row r="88" ht="15" spans="1:7">
       <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B88" s="1">
-        <v>226</v>
+        <v>5102</v>
       </c>
       <c r="C88" s="1">
-        <v>5102</v>
+        <v>1661</v>
       </c>
       <c r="D88" s="1">
-        <v>1661</v>
+        <v>0</v>
       </c>
       <c r="E88" s="1">
         <v>0</v>
@@ -3659,203 +3401,179 @@
         <v>0</v>
       </c>
       <c r="G88" s="1">
-        <v>0</v>
-      </c>
-      <c r="H88" s="1">
         <v>6989</v>
       </c>
     </row>
-    <row r="89" ht="15" spans="1:8">
+    <row r="89" ht="15" spans="1:7">
       <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B89" s="1">
-        <v>179</v>
+        <v>1328</v>
       </c>
       <c r="C89" s="1">
-        <v>1328</v>
+        <v>1558</v>
       </c>
       <c r="D89" s="1">
-        <v>1558</v>
+        <v>1457</v>
       </c>
       <c r="E89" s="1">
-        <v>1457</v>
+        <v>367</v>
       </c>
       <c r="F89" s="1">
-        <v>367</v>
+        <v>0</v>
       </c>
       <c r="G89" s="1">
-        <v>0</v>
-      </c>
-      <c r="H89" s="1">
         <v>4889</v>
       </c>
     </row>
-    <row r="90" ht="15" spans="1:8">
+    <row r="90" ht="15" spans="1:7">
       <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B90" s="1">
-        <v>338</v>
+        <v>3621</v>
       </c>
       <c r="C90" s="1">
-        <v>3621</v>
+        <v>4420</v>
       </c>
       <c r="D90" s="1">
-        <v>4420</v>
+        <v>11564</v>
       </c>
       <c r="E90" s="1">
-        <v>11564</v>
+        <v>4243</v>
       </c>
       <c r="F90" s="1">
-        <v>4243</v>
+        <v>224</v>
       </c>
       <c r="G90" s="1">
-        <v>224</v>
-      </c>
-      <c r="H90" s="1">
         <v>24410</v>
       </c>
     </row>
-    <row r="91" ht="15" spans="1:8">
+    <row r="91" ht="15" spans="1:7">
       <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B91" s="1">
-        <v>112</v>
+        <v>1043</v>
       </c>
       <c r="C91" s="1">
-        <v>1043</v>
+        <v>345</v>
       </c>
       <c r="D91" s="1">
-        <v>345</v>
+        <v>746</v>
       </c>
       <c r="E91" s="1">
-        <v>746</v>
+        <v>16261</v>
       </c>
       <c r="F91" s="1">
-        <v>16261</v>
+        <v>21711</v>
       </c>
       <c r="G91" s="1">
-        <v>21711</v>
-      </c>
-      <c r="H91" s="1">
         <v>40218</v>
       </c>
     </row>
-    <row r="92" ht="15" spans="1:8">
+    <row r="92" ht="15" spans="1:7">
       <c r="A92" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B92" s="1">
-        <v>115</v>
+        <v>812</v>
       </c>
       <c r="C92" s="1">
-        <v>812</v>
+        <v>1320</v>
       </c>
       <c r="D92" s="1">
-        <v>1320</v>
+        <v>1507</v>
       </c>
       <c r="E92" s="1">
-        <v>1507</v>
+        <v>1614</v>
       </c>
       <c r="F92" s="1">
-        <v>1614</v>
+        <v>1146</v>
       </c>
       <c r="G92" s="1">
-        <v>1146</v>
-      </c>
-      <c r="H92" s="1">
         <v>6514</v>
       </c>
     </row>
-    <row r="93" ht="15" spans="1:8">
+    <row r="93" ht="15" spans="1:7">
       <c r="A93" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B93" s="1">
-        <v>99</v>
+        <v>1247</v>
       </c>
       <c r="C93" s="1">
-        <v>1247</v>
+        <v>4177</v>
       </c>
       <c r="D93" s="1">
-        <v>4177</v>
+        <v>4855</v>
       </c>
       <c r="E93" s="1">
-        <v>4855</v>
+        <v>7143</v>
       </c>
       <c r="F93" s="1">
-        <v>7143</v>
+        <v>4787</v>
       </c>
       <c r="G93" s="1">
-        <v>4787</v>
-      </c>
-      <c r="H93" s="1">
         <v>22308</v>
       </c>
     </row>
-    <row r="94" ht="15" spans="1:8">
+    <row r="94" ht="15" spans="1:7">
       <c r="A94" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B94" s="1">
-        <v>74</v>
+        <v>670</v>
       </c>
       <c r="C94" s="1">
-        <v>670</v>
+        <v>415</v>
       </c>
       <c r="D94" s="1">
-        <v>415</v>
+        <v>1128</v>
       </c>
       <c r="E94" s="1">
-        <v>1128</v>
+        <v>529</v>
       </c>
       <c r="F94" s="1">
-        <v>529</v>
+        <v>383</v>
       </c>
       <c r="G94" s="1">
-        <v>383</v>
-      </c>
-      <c r="H94" s="1">
         <v>3199</v>
       </c>
     </row>
-    <row r="95" ht="15" spans="1:8">
+    <row r="95" ht="15" spans="1:7">
       <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B95" s="1">
-        <v>119</v>
+        <v>3110</v>
       </c>
       <c r="C95" s="1">
-        <v>3110</v>
+        <v>983</v>
       </c>
       <c r="D95" s="1">
-        <v>983</v>
+        <v>1717</v>
       </c>
       <c r="E95" s="1">
-        <v>1717</v>
+        <v>1229</v>
       </c>
       <c r="F95" s="1">
-        <v>1229</v>
+        <v>365</v>
       </c>
       <c r="G95" s="1">
-        <v>365</v>
-      </c>
-      <c r="H95" s="1">
         <v>7523</v>
       </c>
     </row>
-    <row r="96" ht="15" spans="1:8">
+    <row r="96" ht="15" spans="1:7">
       <c r="A96" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B96" s="1">
-        <v>59</v>
+        <v>417</v>
       </c>
       <c r="C96" s="1">
-        <v>417</v>
+        <v>0</v>
       </c>
       <c r="D96" s="1">
         <v>0</v>
@@ -3867,44 +3585,38 @@
         <v>0</v>
       </c>
       <c r="G96" s="1">
-        <v>0</v>
-      </c>
-      <c r="H96" s="1">
         <v>476</v>
       </c>
     </row>
-    <row r="97" ht="15" spans="1:8">
+    <row r="97" ht="15" spans="1:7">
       <c r="A97" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B97" s="1">
-        <v>109</v>
+        <v>889</v>
       </c>
       <c r="C97" s="1">
-        <v>889</v>
+        <v>1187</v>
       </c>
       <c r="D97" s="1">
-        <v>1187</v>
+        <v>1223</v>
       </c>
       <c r="E97" s="1">
-        <v>1223</v>
+        <v>701</v>
       </c>
       <c r="F97" s="1">
-        <v>701</v>
+        <v>293</v>
       </c>
       <c r="G97" s="1">
-        <v>293</v>
-      </c>
-      <c r="H97" s="1">
         <v>4402</v>
       </c>
     </row>
-    <row r="98" ht="15" spans="1:8">
+    <row r="98" ht="15" spans="1:7">
       <c r="A98" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B98" s="1">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="C98" s="1">
         <v>0</v>
@@ -3916,27 +3628,24 @@
         <v>0</v>
       </c>
       <c r="F98" s="1">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="G98" s="1">
-        <v>113</v>
-      </c>
-      <c r="H98" s="1">
         <v>172</v>
       </c>
     </row>
-    <row r="99" ht="15" spans="1:8">
+    <row r="99" ht="15" spans="1:7">
       <c r="A99" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B99" s="1">
-        <v>132</v>
+        <v>1176</v>
       </c>
       <c r="C99" s="1">
-        <v>1176</v>
+        <v>569</v>
       </c>
       <c r="D99" s="1">
-        <v>569</v>
+        <v>0</v>
       </c>
       <c r="E99" s="1">
         <v>0</v>
@@ -3945,333 +3654,294 @@
         <v>0</v>
       </c>
       <c r="G99" s="1">
-        <v>0</v>
-      </c>
-      <c r="H99" s="1">
         <v>1877</v>
       </c>
     </row>
-    <row r="100" ht="15" spans="1:8">
+    <row r="100" ht="15" spans="1:7">
       <c r="A100" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B100" s="1">
-        <v>65</v>
+        <v>269</v>
       </c>
       <c r="C100" s="1">
-        <v>269</v>
+        <v>635</v>
       </c>
       <c r="D100" s="1">
-        <v>635</v>
+        <v>832</v>
       </c>
       <c r="E100" s="1">
-        <v>832</v>
+        <v>1409</v>
       </c>
       <c r="F100" s="1">
-        <v>1409</v>
+        <v>1590</v>
       </c>
       <c r="G100" s="1">
-        <v>1590</v>
-      </c>
-      <c r="H100" s="1">
         <v>4800</v>
       </c>
     </row>
-    <row r="101" ht="15" spans="1:8">
+    <row r="101" ht="15" spans="1:7">
       <c r="A101" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B101" s="1">
-        <v>83</v>
+        <v>1029</v>
       </c>
       <c r="C101" s="1">
-        <v>1029</v>
+        <v>1586</v>
       </c>
       <c r="D101" s="1">
-        <v>1586</v>
+        <v>4285</v>
       </c>
       <c r="E101" s="1">
-        <v>4285</v>
+        <v>10381</v>
       </c>
       <c r="F101" s="1">
-        <v>10381</v>
+        <v>13864</v>
       </c>
       <c r="G101" s="1">
-        <v>13864</v>
-      </c>
-      <c r="H101" s="1">
         <v>31228</v>
       </c>
     </row>
-    <row r="102" ht="15" spans="1:8">
+    <row r="102" ht="15" spans="1:7">
       <c r="A102" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B102" s="1">
-        <v>58</v>
+        <v>5955</v>
       </c>
       <c r="C102" s="1">
-        <v>5955</v>
+        <v>19608</v>
       </c>
       <c r="D102" s="1">
-        <v>19608</v>
+        <v>13897</v>
       </c>
       <c r="E102" s="1">
-        <v>13897</v>
+        <v>1441</v>
       </c>
       <c r="F102" s="1">
-        <v>1441</v>
+        <v>471</v>
       </c>
       <c r="G102" s="1">
-        <v>471</v>
-      </c>
-      <c r="H102" s="1">
         <v>41430</v>
       </c>
     </row>
-    <row r="103" ht="15" spans="1:8">
+    <row r="103" ht="15" spans="1:7">
       <c r="A103" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B103" s="1">
-        <v>53</v>
+        <v>1183</v>
       </c>
       <c r="C103" s="1">
-        <v>1183</v>
+        <v>2465</v>
       </c>
       <c r="D103" s="1">
-        <v>2465</v>
+        <v>4095</v>
       </c>
       <c r="E103" s="1">
-        <v>4095</v>
+        <v>6651</v>
       </c>
       <c r="F103" s="1">
-        <v>6651</v>
+        <v>9781</v>
       </c>
       <c r="G103" s="1">
-        <v>9781</v>
-      </c>
-      <c r="H103" s="1">
         <v>24228</v>
       </c>
     </row>
-    <row r="104" ht="15" spans="1:8">
+    <row r="104" ht="15" spans="1:7">
       <c r="A104" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B104" s="1">
-        <v>76</v>
+        <v>607</v>
       </c>
       <c r="C104" s="1">
-        <v>607</v>
+        <v>846</v>
       </c>
       <c r="D104" s="1">
-        <v>846</v>
+        <v>886</v>
       </c>
       <c r="E104" s="1">
-        <v>886</v>
+        <v>731</v>
       </c>
       <c r="F104" s="1">
-        <v>731</v>
+        <v>671</v>
       </c>
       <c r="G104" s="1">
-        <v>671</v>
-      </c>
-      <c r="H104" s="1">
         <v>3817</v>
       </c>
     </row>
-    <row r="105" ht="15" spans="1:8">
+    <row r="105" ht="15" spans="1:7">
       <c r="A105" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B105" s="1">
-        <v>27</v>
+        <v>1154</v>
       </c>
       <c r="C105" s="1">
-        <v>1154</v>
+        <v>2406</v>
       </c>
       <c r="D105" s="1">
-        <v>2406</v>
+        <v>1384</v>
       </c>
       <c r="E105" s="1">
-        <v>1384</v>
+        <v>1493</v>
       </c>
       <c r="F105" s="1">
-        <v>1493</v>
+        <v>1679</v>
       </c>
       <c r="G105" s="1">
-        <v>1679</v>
-      </c>
-      <c r="H105" s="1">
         <v>8143</v>
       </c>
     </row>
-    <row r="106" ht="15" spans="1:8">
+    <row r="106" ht="15" spans="1:7">
       <c r="A106" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B106" s="1">
-        <v>52</v>
+        <v>312</v>
       </c>
       <c r="C106" s="1">
-        <v>312</v>
+        <v>515</v>
       </c>
       <c r="D106" s="1">
-        <v>515</v>
+        <v>774</v>
       </c>
       <c r="E106" s="1">
-        <v>774</v>
+        <v>892</v>
       </c>
       <c r="F106" s="1">
-        <v>892</v>
+        <v>431</v>
       </c>
       <c r="G106" s="1">
-        <v>431</v>
-      </c>
-      <c r="H106" s="1">
         <v>2976</v>
       </c>
     </row>
-    <row r="107" ht="15" spans="1:8">
+    <row r="107" ht="15" spans="1:7">
       <c r="A107" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B107" s="1">
-        <v>26</v>
+        <v>2598</v>
       </c>
       <c r="C107" s="1">
-        <v>2598</v>
+        <v>4505</v>
       </c>
       <c r="D107" s="1">
-        <v>4505</v>
+        <v>9363</v>
       </c>
       <c r="E107" s="1">
-        <v>9363</v>
+        <v>1632</v>
       </c>
       <c r="F107" s="1">
-        <v>1632</v>
+        <v>886</v>
       </c>
       <c r="G107" s="1">
-        <v>886</v>
-      </c>
-      <c r="H107" s="1">
         <v>19010</v>
       </c>
     </row>
-    <row r="108" ht="15" spans="1:8">
+    <row r="108" ht="15" spans="1:7">
       <c r="A108" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B108" s="1">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C108" s="1">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="D108" s="1">
-        <v>160</v>
+        <v>470</v>
       </c>
       <c r="E108" s="1">
-        <v>470</v>
+        <v>1604</v>
       </c>
       <c r="F108" s="1">
-        <v>1604</v>
+        <v>5224</v>
       </c>
       <c r="G108" s="1">
-        <v>5224</v>
-      </c>
-      <c r="H108" s="1">
         <v>7506</v>
       </c>
     </row>
-    <row r="109" ht="15" spans="1:8">
+    <row r="109" ht="15" spans="1:7">
       <c r="A109" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B109" s="1">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="C109" s="1">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="D109" s="1">
-        <v>123</v>
+        <v>7045</v>
       </c>
       <c r="E109" s="1">
-        <v>7045</v>
+        <v>13365</v>
       </c>
       <c r="F109" s="1">
-        <v>13365</v>
+        <v>690</v>
       </c>
       <c r="G109" s="1">
-        <v>690</v>
-      </c>
-      <c r="H109" s="1">
         <v>21327</v>
       </c>
     </row>
-    <row r="110" ht="15" spans="1:8">
+    <row r="110" ht="15" spans="1:7">
       <c r="A110" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B110" s="1">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="C110" s="1">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="D110" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E110" s="1">
         <v>3</v>
       </c>
       <c r="F110" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G110" s="1">
-        <v>0</v>
-      </c>
-      <c r="H110" s="1">
         <v>109</v>
       </c>
     </row>
-    <row r="111" ht="15" spans="1:8">
+    <row r="111" ht="15" spans="1:7">
       <c r="A111" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B111" s="1">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="C111" s="1">
-        <v>235</v>
+        <v>946</v>
       </c>
       <c r="D111" s="1">
-        <v>946</v>
+        <v>7099</v>
       </c>
       <c r="E111" s="1">
-        <v>7099</v>
+        <v>3845</v>
       </c>
       <c r="F111" s="1">
-        <v>3845</v>
+        <v>0</v>
       </c>
       <c r="G111" s="1">
-        <v>0</v>
-      </c>
-      <c r="H111" s="1">
         <v>12131</v>
       </c>
     </row>
-    <row r="112" ht="15" spans="1:8">
+    <row r="112" ht="15" spans="1:7">
       <c r="A112" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B112" s="1">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C112" s="1">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D112" s="1">
         <v>0</v>
@@ -4283,50 +3953,44 @@
         <v>0</v>
       </c>
       <c r="G112" s="1">
-        <v>0</v>
-      </c>
-      <c r="H112" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="113" ht="15" spans="1:8">
+    <row r="113" ht="15" spans="1:7">
       <c r="A113" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B113" s="1">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="C113" s="1">
-        <v>223</v>
+        <v>150</v>
       </c>
       <c r="D113" s="1">
-        <v>150</v>
+        <v>416</v>
       </c>
       <c r="E113" s="1">
-        <v>416</v>
+        <v>131</v>
       </c>
       <c r="F113" s="1">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="G113" s="1">
-        <v>59</v>
-      </c>
-      <c r="H113" s="1">
         <v>989</v>
       </c>
     </row>
-    <row r="114" ht="15" spans="1:8">
+    <row r="114" ht="15" spans="1:7">
       <c r="A114" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B114" s="1">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="C114" s="1">
-        <v>198</v>
+        <v>23</v>
       </c>
       <c r="D114" s="1">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E114" s="1">
         <v>0</v>
@@ -4335,24 +3999,21 @@
         <v>0</v>
       </c>
       <c r="G114" s="1">
-        <v>0</v>
-      </c>
-      <c r="H114" s="1">
         <v>230</v>
       </c>
     </row>
-    <row r="115" ht="15" spans="1:8">
+    <row r="115" ht="15" spans="1:7">
       <c r="A115" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B115" s="1">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C115" s="1">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D115" s="1">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E115" s="1">
         <v>0</v>
@@ -4361,21 +4022,18 @@
         <v>0</v>
       </c>
       <c r="G115" s="1">
-        <v>0</v>
-      </c>
-      <c r="H115" s="1">
         <v>98</v>
       </c>
     </row>
-    <row r="116" ht="15" spans="1:8">
+    <row r="116" ht="15" spans="1:7">
       <c r="A116" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B116" s="1">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C116" s="1">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D116" s="1">
         <v>0</v>
@@ -4387,47 +4045,41 @@
         <v>0</v>
       </c>
       <c r="G116" s="1">
-        <v>0</v>
-      </c>
-      <c r="H116" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="117" ht="15" spans="1:8">
+    <row r="117" ht="15" spans="1:7">
       <c r="A117" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B117" s="1">
-        <v>9</v>
+        <v>201</v>
       </c>
       <c r="C117" s="1">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="D117" s="1">
-        <v>179</v>
+        <v>58</v>
       </c>
       <c r="E117" s="1">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="F117" s="1">
-        <v>1</v>
+        <v>331</v>
       </c>
       <c r="G117" s="1">
-        <v>331</v>
-      </c>
-      <c r="H117" s="1">
         <v>779</v>
       </c>
     </row>
-    <row r="118" ht="15" spans="1:8">
+    <row r="118" ht="15" spans="1:7">
       <c r="A118" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B118" s="1">
-        <v>5</v>
+        <v>9172</v>
       </c>
       <c r="C118" s="1">
-        <v>9172</v>
+        <v>0</v>
       </c>
       <c r="D118" s="1">
         <v>0</v>
@@ -4439,76 +4091,67 @@
         <v>0</v>
       </c>
       <c r="G118" s="1">
-        <v>0</v>
-      </c>
-      <c r="H118" s="1">
         <v>9177</v>
       </c>
     </row>
-    <row r="119" ht="15" spans="1:8">
+    <row r="119" ht="15" spans="1:7">
       <c r="A119" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B119" s="1">
-        <v>10</v>
+        <v>2199</v>
       </c>
       <c r="C119" s="1">
-        <v>2199</v>
+        <v>1970</v>
       </c>
       <c r="D119" s="1">
-        <v>1970</v>
+        <v>8141</v>
       </c>
       <c r="E119" s="1">
-        <v>8141</v>
+        <v>6712</v>
       </c>
       <c r="F119" s="1">
-        <v>6712</v>
+        <v>6884</v>
       </c>
       <c r="G119" s="1">
-        <v>6884</v>
-      </c>
-      <c r="H119" s="1">
         <v>25916</v>
       </c>
     </row>
-    <row r="120" ht="15" spans="1:8">
+    <row r="120" ht="15" spans="1:7">
       <c r="A120" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B120" s="1">
-        <v>8</v>
+        <v>504</v>
       </c>
       <c r="C120" s="1">
-        <v>504</v>
+        <v>7840</v>
       </c>
       <c r="D120" s="1">
-        <v>7840</v>
+        <v>4520</v>
       </c>
       <c r="E120" s="1">
-        <v>4520</v>
+        <v>4237</v>
       </c>
       <c r="F120" s="1">
-        <v>4237</v>
+        <v>10</v>
       </c>
       <c r="G120" s="1">
-        <v>10</v>
-      </c>
-      <c r="H120" s="1">
         <v>17119</v>
       </c>
     </row>
-    <row r="121" ht="15" spans="1:8">
+    <row r="121" ht="15" spans="1:7">
       <c r="A121" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B121" s="1">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="C121" s="1">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="D121" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E121" s="1">
         <v>0</v>
@@ -4517,18 +4160,15 @@
         <v>0</v>
       </c>
       <c r="G121" s="1">
-        <v>0</v>
-      </c>
-      <c r="H121" s="1">
         <v>107</v>
       </c>
     </row>
-    <row r="122" ht="15" spans="1:8">
+    <row r="122" ht="15" spans="1:7">
       <c r="A122" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B122" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C122" s="1">
         <v>0</v>
@@ -4537,19 +4177,16 @@
         <v>0</v>
       </c>
       <c r="E122" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F122" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G122" s="1">
-        <v>8</v>
-      </c>
-      <c r="H122" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="123" ht="15" spans="1:8">
+    <row r="123" ht="15" spans="1:7">
       <c r="A123" s="1" t="s">
         <v>123</v>
       </c>
@@ -4557,7 +4194,7 @@
         <v>3</v>
       </c>
       <c r="C123" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D123" s="1">
         <v>0</v>
@@ -4569,232 +4206,205 @@
         <v>0</v>
       </c>
       <c r="G123" s="1">
-        <v>0</v>
-      </c>
-      <c r="H123" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="124" ht="15" spans="1:8">
+    <row r="124" ht="15" spans="1:7">
       <c r="A124" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B124" s="1">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="C124" s="1">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="D124" s="1">
-        <v>142</v>
+        <v>2374</v>
       </c>
       <c r="E124" s="1">
-        <v>2374</v>
+        <v>1355</v>
       </c>
       <c r="F124" s="1">
-        <v>1355</v>
+        <v>0</v>
       </c>
       <c r="G124" s="1">
-        <v>0</v>
-      </c>
-      <c r="H124" s="1">
         <v>3948</v>
       </c>
     </row>
-    <row r="125" ht="15" spans="1:8">
+    <row r="125" ht="15" spans="1:7">
       <c r="A125" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B125" s="1">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="C125" s="1">
-        <v>110</v>
+        <v>372</v>
       </c>
       <c r="D125" s="1">
-        <v>372</v>
+        <v>11</v>
       </c>
       <c r="E125" s="1">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="F125" s="1">
-        <v>198</v>
+        <v>3055</v>
       </c>
       <c r="G125" s="1">
-        <v>3055</v>
-      </c>
-      <c r="H125" s="1">
         <v>3748</v>
       </c>
     </row>
-    <row r="126" ht="15" spans="1:8">
+    <row r="126" ht="15" spans="1:7">
       <c r="A126" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B126" s="1">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="C126" s="1">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="D126" s="1">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E126" s="1">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="F126" s="1">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G126" s="1">
-        <v>16</v>
-      </c>
-      <c r="H126" s="1">
         <v>249</v>
       </c>
     </row>
-    <row r="127" ht="15" spans="1:8">
+    <row r="127" ht="15" spans="1:7">
       <c r="A127" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B127" s="1">
-        <v>5</v>
+        <v>225</v>
       </c>
       <c r="C127" s="1">
-        <v>225</v>
+        <v>1511</v>
       </c>
       <c r="D127" s="1">
-        <v>1511</v>
+        <v>34637</v>
       </c>
       <c r="E127" s="1">
-        <v>34637</v>
+        <v>35647</v>
       </c>
       <c r="F127" s="1">
-        <v>35647</v>
+        <v>17494</v>
       </c>
       <c r="G127" s="1">
-        <v>17494</v>
-      </c>
-      <c r="H127" s="1">
         <v>89519</v>
       </c>
     </row>
-    <row r="128" ht="15" spans="1:8">
+    <row r="128" ht="15" spans="1:7">
       <c r="A128" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B128" s="1">
-        <v>3</v>
+        <v>134</v>
       </c>
       <c r="C128" s="1">
-        <v>134</v>
+        <v>662</v>
       </c>
       <c r="D128" s="1">
-        <v>662</v>
+        <v>3069</v>
       </c>
       <c r="E128" s="1">
-        <v>3069</v>
+        <v>176</v>
       </c>
       <c r="F128" s="1">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="G128" s="1">
-        <v>0</v>
-      </c>
-      <c r="H128" s="1">
         <v>4044</v>
       </c>
     </row>
-    <row r="129" ht="15" spans="1:8">
+    <row r="129" ht="15" spans="1:7">
       <c r="A129" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B129" s="1">
-        <v>10</v>
+        <v>547</v>
       </c>
       <c r="C129" s="1">
-        <v>547</v>
+        <v>1264</v>
       </c>
       <c r="D129" s="1">
-        <v>1264</v>
+        <v>4197</v>
       </c>
       <c r="E129" s="1">
-        <v>4197</v>
+        <v>320</v>
       </c>
       <c r="F129" s="1">
-        <v>320</v>
+        <v>4</v>
       </c>
       <c r="G129" s="1">
-        <v>4</v>
-      </c>
-      <c r="H129" s="1">
         <v>6342</v>
       </c>
     </row>
-    <row r="130" ht="15" spans="1:8">
+    <row r="130" ht="15" spans="1:7">
       <c r="A130" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B130" s="1">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="C130" s="1">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="D130" s="1">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E130" s="1">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F130" s="1">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="G130" s="1">
-        <v>9</v>
-      </c>
-      <c r="H130" s="1">
         <v>246</v>
       </c>
     </row>
-    <row r="131" ht="15" spans="1:8">
+    <row r="131" ht="15" spans="1:7">
       <c r="A131" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B131" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C131" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D131" s="1">
         <v>0</v>
       </c>
       <c r="E131" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F131" s="1">
-        <v>4</v>
+        <v>450</v>
       </c>
       <c r="G131" s="1">
-        <v>450</v>
-      </c>
-      <c r="H131" s="1">
         <v>458</v>
       </c>
     </row>
-    <row r="132" ht="15" spans="1:8">
+    <row r="132" ht="15" spans="1:7">
       <c r="A132" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B132" s="1">
-        <v>3</v>
+        <v>13693</v>
       </c>
       <c r="C132" s="1">
-        <v>13693</v>
+        <v>1621</v>
       </c>
       <c r="D132" s="1">
-        <v>1621</v>
+        <v>0</v>
       </c>
       <c r="E132" s="1">
         <v>0</v>
@@ -4803,24 +4413,21 @@
         <v>0</v>
       </c>
       <c r="G132" s="1">
-        <v>0</v>
-      </c>
-      <c r="H132" s="1">
         <v>15317</v>
       </c>
     </row>
-    <row r="133" ht="15" spans="1:8">
+    <row r="133" ht="15" spans="1:7">
       <c r="A133" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B133" s="1">
-        <v>15</v>
+        <v>360</v>
       </c>
       <c r="C133" s="1">
-        <v>360</v>
+        <v>22</v>
       </c>
       <c r="D133" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E133" s="1">
         <v>0</v>
@@ -4829,9 +4436,6 @@
         <v>0</v>
       </c>
       <c r="G133" s="1">
-        <v>0</v>
-      </c>
-      <c r="H133" s="1">
         <v>397</v>
       </c>
     </row>
